--- a/data/epsp/demo/2x(3+1).xlsx
+++ b/data/epsp/demo/2x(3+1).xlsx
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>

--- a/data/epsp/demo/2x(3+1).xlsx
+++ b/data/epsp/demo/2x(3+1).xlsx
@@ -19,7 +19,7 @@
     <t>Job</t>
   </si>
   <si>
-    <t>Start|0</t>
+    <t>Start|1</t>
   </si>
   <si>
     <t>Tank1|4</t>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
